--- a/注册和发布的字段.xlsx
+++ b/注册和发布的字段.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milang/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C10E69-3CC3-8B46-B8FC-09DEFCF6FB87}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC904A-0F16-4244-B3A6-1F9A8FF99FD0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1740" windowWidth="27780" windowHeight="17440" activeTab="5" xr2:uid="{29750069-0F85-8A4F-953E-7CCE1A0CB654}"/>
+    <workbookView xWindow="5820" yWindow="1740" windowWidth="27780" windowHeight="17440" activeTab="6" xr2:uid="{29750069-0F85-8A4F-953E-7CCE1A0CB654}"/>
   </bookViews>
   <sheets>
     <sheet name="注册登陆" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="159">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,10 +584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">更改状态 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>买方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,6 +609,62 @@
   </si>
   <si>
     <t>个人中心-卖家订单列表 seller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台合同签订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方协议签订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同 协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>履约完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消或中止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有签订三方协议后卖家才显示订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">合同 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同 凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同 凭证 协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改状态 删除订单（总）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改状态  删除订单（总）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -709,7 +761,18 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -741,9 +804,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -771,7 +831,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,13 +1238,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3444582</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1219,13 +1282,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3495040</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>26992</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1303,8 +1366,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{505F05BE-24F6-1D45-B53E-B517333D37DC}" name="表1_3" displayName="表1_3" ref="A2:E11" totalsRowShown="0">
-  <autoFilter ref="A2:E11" xr:uid="{9A633048-BF43-364D-B9B0-6B0AD1D7CA15}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{505F05BE-24F6-1D45-B53E-B517333D37DC}" name="表1_3" displayName="表1_3" ref="A2:E9" totalsRowShown="0">
+  <autoFilter ref="A2:E9" xr:uid="{9A633048-BF43-364D-B9B0-6B0AD1D7CA15}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1737,7 +1800,7 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E6" t="s">
@@ -1771,7 +1834,7 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E8" t="s">
@@ -1868,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EDFF58-0D87-8C41-97BB-2FC004176C57}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A72" zoomScale="131" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="131" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
@@ -1902,153 +1965,153 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>42748</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>20000</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>2000</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2318,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADACB4EB-1815-314C-99FC-0BFF96CF2A77}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2437,74 +2500,40 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1000000</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="237" customHeight="1">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>100000</v>
+        <v>57</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="237" customHeight="1">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2522,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10D0B5B-9C45-EE4C-A925-DDEA85BD10C1}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2535,318 +2564,318 @@
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="41" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>23380</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="34">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>23380</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>23380</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>23380</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>23380</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="34">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>23380</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="34">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>23380</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="34">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>23380</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="34">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>23380</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2856,218 +2885,218 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="I19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="34">
+      <c r="A20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="12">
+        <v>23380</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="34">
-      <c r="A20" s="13" t="s">
+      <c r="H20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="34">
+      <c r="A21" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="12">
         <v>23380</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="E21" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="G21" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="34">
-      <c r="A21" s="13" t="s">
+      <c r="K21" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="34">
+      <c r="A22" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="12">
         <v>23380</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="E22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="13" t="s">
+      <c r="G22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="34">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:11" ht="34">
+      <c r="A23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="12">
         <v>23380</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="E23" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J22" s="13" t="s">
+      <c r="G23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="34">
-      <c r="A23" s="13" t="s">
+    <row r="24" spans="1:11" ht="34">
+      <c r="A24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="12">
         <v>23380</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="E24" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="34">
-      <c r="A24" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="13">
-        <v>23380</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K24" s="13" t="s">
+      <c r="G24" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="G25" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3078,14 +3107,471 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F2DD2-4581-6C43-8AB7-6DAA40CA4F05}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="38" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="38" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="38" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="38" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="40" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="40" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="40" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="40" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="40" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="F24" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/注册和发布的字段.xlsx
+++ b/注册和发布的字段.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milang/wyxgit/3jjypt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC904A-0F16-4244-B3A6-1F9A8FF99FD0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF7D853-43BC-024D-845B-82297569AD46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1740" windowWidth="27780" windowHeight="17440" activeTab="6" xr2:uid="{29750069-0F85-8A4F-953E-7CCE1A0CB654}"/>
+    <workbookView xWindow="21280" yWindow="2540" windowWidth="27780" windowHeight="17440" activeTab="6" xr2:uid="{29750069-0F85-8A4F-953E-7CCE1A0CB654}"/>
   </bookViews>
   <sheets>
     <sheet name="注册登陆" sheetId="5" r:id="rId1"/>
     <sheet name="用户资料" sheetId="4" r:id="rId2"/>
     <sheet name="专利商品发布" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
-    <sheet name="技术项目发布" sheetId="2" r:id="rId5"/>
-    <sheet name="专利订单状态" sheetId="7" r:id="rId6"/>
-    <sheet name="项目订单状态" sheetId="8" r:id="rId7"/>
+    <sheet name="技术项目发布" sheetId="2" r:id="rId4"/>
+    <sheet name="专利订单状态" sheetId="7" r:id="rId5"/>
+    <sheet name="项目订单状态" sheetId="8" r:id="rId6"/>
+    <sheet name="孵化" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="179">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,18 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专利管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专利商品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专利行业类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,6 +653,98 @@
   </si>
   <si>
     <t>更改状态  删除订单（总）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化器库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家级、省级、市级、区级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">邮编 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnfuhuaqi.com/park/0.aspx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在孵企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高新园区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>园区介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融机构名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化器名字（中英）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>园区名字（中英）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +755,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -713,6 +793,15 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -785,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,6 +924,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2349,37 +2444,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BC812F-8320-FA48-9650-6036B69EE839}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADACB4EB-1815-314C-99FC-0BFF96CF2A77}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2547,7 +2611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10D0B5B-9C45-EE4C-A925-DDEA85BD10C1}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -2570,89 +2634,89 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="F2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="41" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D3" s="12">
         <v>23380</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="34">
       <c r="A4" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D4" s="12">
         <v>23380</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
@@ -2661,25 +2725,25 @@
     </row>
     <row r="5" spans="1:9" ht="34">
       <c r="A5" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" s="12">
         <v>23380</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
@@ -2688,25 +2752,25 @@
     </row>
     <row r="6" spans="1:9" ht="34">
       <c r="A6" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D6" s="12">
         <v>23380</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
@@ -2715,28 +2779,28 @@
     </row>
     <row r="7" spans="1:9" ht="34">
       <c r="A7" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D7" s="12">
         <v>23380</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>49</v>
@@ -2744,59 +2808,59 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="F11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="34">
       <c r="A12" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D12" s="12">
         <v>23380</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -2806,22 +2870,22 @@
     </row>
     <row r="13" spans="1:9" ht="34">
       <c r="A13" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13" s="12">
         <v>23380</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -2831,22 +2895,22 @@
     </row>
     <row r="14" spans="1:9" ht="34">
       <c r="A14" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D14" s="12">
         <v>23380</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -2856,22 +2920,22 @@
     </row>
     <row r="15" spans="1:9" ht="34">
       <c r="A15" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D15" s="12">
         <v>23380</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -2881,222 +2945,222 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="F19" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="J19" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="34">
       <c r="A20" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D20" s="12">
         <v>23380</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="34">
       <c r="A21" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D21" s="12">
         <v>23380</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="34">
       <c r="A22" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D22" s="12">
         <v>23380</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="34">
       <c r="A23" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D23" s="12">
         <v>23380</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="34">
       <c r="A24" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D24" s="12">
         <v>23380</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="G25" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3105,11 +3169,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F2DD2-4581-6C43-8AB7-6DAA40CA4F05}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -3129,53 +3193,53 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="E2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>49</v>
@@ -3183,22 +3247,22 @@
     </row>
     <row r="4" spans="1:7" ht="38" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>49</v>
@@ -3206,22 +3270,22 @@
     </row>
     <row r="5" spans="1:7" ht="38" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="E5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>49</v>
@@ -3229,22 +3293,22 @@
     </row>
     <row r="6" spans="1:7" ht="38" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>49</v>
@@ -3252,22 +3316,22 @@
     </row>
     <row r="7" spans="1:7" ht="38" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>49</v>
@@ -3275,53 +3339,53 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="E11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="G11" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="E12" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>49</v>
@@ -3329,22 +3393,22 @@
     </row>
     <row r="13" spans="1:7" ht="40" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>49</v>
@@ -3352,22 +3416,22 @@
     </row>
     <row r="14" spans="1:7" ht="40" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>49</v>
@@ -3375,204 +3439,413 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="E18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="I18" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="40" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="40" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="40" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="40" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="40" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="F24" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BC812F-8320-FA48-9650-6036B69EE839}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{2E06802A-5F95-F648-92D9-D91A0EC54056}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>